--- a/results/comparaison/WM/azimuth/max_normalized.xlsx
+++ b/results/comparaison/WM/azimuth/max_normalized.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:CS7"/>
+  <dimension ref="A1:CW7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:97">
+    <row r="1" spans="1:101">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -661,8 +661,20 @@
       <c r="CS1" s="1">
         <v>95</v>
       </c>
+      <c r="CT1" s="1">
+        <v>96</v>
+      </c>
+      <c r="CU1" s="1">
+        <v>97</v>
+      </c>
+      <c r="CV1" s="1">
+        <v>98</v>
+      </c>
+      <c r="CW1" s="1">
+        <v>99</v>
+      </c>
     </row>
-    <row r="2" spans="1:97">
+    <row r="2" spans="1:101">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -921,9 +933,6 @@
       <c r="CI2">
         <v>1</v>
       </c>
-      <c r="CJ2">
-        <v>1</v>
-      </c>
       <c r="CK2">
         <v>1</v>
       </c>
@@ -951,44 +960,89 @@
       <c r="CS2">
         <v>1</v>
       </c>
+      <c r="CT2">
+        <v>1</v>
+      </c>
+      <c r="CU2">
+        <v>1</v>
+      </c>
+      <c r="CV2">
+        <v>1</v>
+      </c>
+      <c r="CW2">
+        <v>1</v>
+      </c>
     </row>
-    <row r="3" spans="1:97">
+    <row r="3" spans="1:101">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
         <v>19.66666666666665</v>
       </c>
+      <c r="C3">
+        <v>0.5942028985507247</v>
+      </c>
+      <c r="D3">
+        <v>2.585365853658536</v>
+      </c>
       <c r="E3">
+        <v>1.111940298507463</v>
+      </c>
+      <c r="F3">
         <v>1.025477707006369</v>
       </c>
-      <c r="F3">
+      <c r="G3">
+        <v>1.445544554455445</v>
+      </c>
+      <c r="H3">
         <v>0.9874213836477991</v>
       </c>
-      <c r="H3">
+      <c r="I3">
+        <v>1.330097087378641</v>
+      </c>
+      <c r="J3">
         <v>0.5789473684210527</v>
       </c>
-      <c r="I3">
+      <c r="K3">
         <v>0.1538461538461538</v>
       </c>
-      <c r="K3">
+      <c r="L3">
+        <v>1.175438596491228</v>
+      </c>
+      <c r="N3">
         <v>4</v>
       </c>
-      <c r="N3">
+      <c r="O3">
+        <v>1.090909090909091</v>
+      </c>
+      <c r="P3">
         <v>0.813953488372093</v>
       </c>
-      <c r="O3">
+      <c r="Q3">
         <v>9.33333333333333</v>
       </c>
-      <c r="P3">
+      <c r="R3">
         <v>0.7352941176470592</v>
       </c>
       <c r="S3">
-        <v>5.96</v>
+        <v>3.574468085106382</v>
+      </c>
+      <c r="T3">
+        <v>0.5333333333333332</v>
+      </c>
+      <c r="U3">
+        <v>0.7011494252873564</v>
+      </c>
+      <c r="V3">
+        <v>0.868131868131868</v>
       </c>
       <c r="W3">
         <v>1.066666666666667</v>
       </c>
+      <c r="X3">
+        <v>0.7066666666666668</v>
+      </c>
       <c r="Y3">
         <v>0.64</v>
       </c>
@@ -996,341 +1050,833 @@
         <v>0.7843137254901961</v>
       </c>
       <c r="AA3">
-        <v>0.3953488372093024</v>
+        <v>16.44444444444444</v>
       </c>
       <c r="AB3">
+        <v>1.125</v>
+      </c>
+      <c r="AC3">
+        <v>0.9741379310344829</v>
+      </c>
+      <c r="AD3">
+        <v>1.6875</v>
+      </c>
+      <c r="AF3">
+        <v>0.7499999999999998</v>
+      </c>
+      <c r="AG3">
+        <v>1.076335877862595</v>
+      </c>
+      <c r="AH3">
+        <v>0.7999999999999998</v>
+      </c>
+      <c r="AI3">
+        <v>0.9069767441860465</v>
+      </c>
+      <c r="AJ3">
+        <v>0.9649122807017543</v>
+      </c>
+      <c r="AL3">
+        <v>1</v>
+      </c>
+      <c r="AM3">
+        <v>0.9090909090909092</v>
+      </c>
+      <c r="AN3">
+        <v>1.104761904761904</v>
+      </c>
+      <c r="AO3">
+        <v>1.024793388429752</v>
+      </c>
+      <c r="AP3">
+        <v>0</v>
+      </c>
+      <c r="AQ3">
+        <v>1.047619047619047</v>
+      </c>
+      <c r="AR3">
+        <v>1.19047619047619</v>
+      </c>
+      <c r="AS3">
+        <v>1.008196721311475</v>
+      </c>
+      <c r="AT3">
+        <v>1.111111111111111</v>
+      </c>
+      <c r="AU3">
+        <v>0.4166666666666665</v>
+      </c>
+      <c r="AV3">
+        <v>1.061224489795918</v>
+      </c>
+      <c r="AX3">
+        <v>0.9928571428571425</v>
+      </c>
+      <c r="AY3">
+        <v>0.9928057553956839</v>
+      </c>
+      <c r="AZ3">
+        <v>0.8188976377952758</v>
+      </c>
+      <c r="BA3">
+        <v>1.020547945205479</v>
+      </c>
+      <c r="BB3">
+        <v>1</v>
+      </c>
+      <c r="BC3">
+        <v>1</v>
+      </c>
+      <c r="BD3">
+        <v>0.9700000000000001</v>
+      </c>
+      <c r="BE3">
+        <v>1</v>
+      </c>
+      <c r="BF3">
+        <v>1.042553191489362</v>
+      </c>
+      <c r="BG3">
+        <v>1.074074074074073</v>
+      </c>
+      <c r="BH3">
+        <v>0.8333333333333331</v>
+      </c>
+      <c r="BI3">
+        <v>1.010869565217391</v>
+      </c>
+      <c r="BJ3">
+        <v>0.9423076923076922</v>
+      </c>
+      <c r="BK3">
+        <v>0.9469696969696969</v>
+      </c>
+      <c r="BM3">
+        <v>0.9519230769230768</v>
+      </c>
+      <c r="BN3">
+        <v>0.9405940594059403</v>
+      </c>
+      <c r="BO3">
+        <v>0.8925619834710745</v>
+      </c>
+      <c r="BP3">
+        <v>0.5568181818181819</v>
+      </c>
+      <c r="BQ3">
+        <v>1.120481927710843</v>
+      </c>
+      <c r="BR3">
+        <v>1.0390625</v>
+      </c>
+      <c r="BS3">
+        <v>2.173913043478262</v>
+      </c>
+      <c r="BT3">
+        <v>1.038461538461539</v>
+      </c>
+      <c r="BU3">
+        <v>1.014285714285714</v>
+      </c>
+      <c r="BV3">
+        <v>1.098901098901099</v>
+      </c>
+      <c r="BW3">
+        <v>1.36734693877551</v>
+      </c>
+      <c r="BX3">
+        <v>0.9696969696969698</v>
+      </c>
+      <c r="BY3">
+        <v>0.9880952380952382</v>
+      </c>
+      <c r="BZ3">
+        <v>1.651162790697674</v>
+      </c>
+      <c r="CA3">
+        <v>0.9352517985611515</v>
+      </c>
+      <c r="CB3">
+        <v>1.096153846153846</v>
+      </c>
+      <c r="CC3">
+        <v>0.3235294117647058</v>
+      </c>
+      <c r="CD3">
+        <v>19.4</v>
+      </c>
+      <c r="CE3">
+        <v>0.5909090909090911</v>
+      </c>
+      <c r="CF3">
+        <v>7</v>
+      </c>
+      <c r="CG3">
         <v>1.018518518518519</v>
       </c>
-      <c r="AQ3">
-        <v>0.9811320754716979</v>
-      </c>
-      <c r="AR3">
-        <v>0.8723404255319148</v>
-      </c>
-      <c r="AS3">
-        <v>0.9361702127659572</v>
-      </c>
-      <c r="AT3">
-        <v>1.6875</v>
-      </c>
-      <c r="AU3">
-        <v>0.7499999999999998</v>
-      </c>
-      <c r="AX3">
-        <v>0.9069767441860465</v>
-      </c>
-      <c r="BB3">
-        <v>0.8481012658227849</v>
-      </c>
-      <c r="BC3">
-        <v>1.069444444444444</v>
-      </c>
-      <c r="BF3">
-        <v>0.9540229885057468</v>
-      </c>
-      <c r="BI3">
-        <v>1</v>
-      </c>
-      <c r="BJ3">
-        <v>0.9082568807339452</v>
-      </c>
-      <c r="BK3">
-        <v>0.4105960264900663</v>
-      </c>
-      <c r="BO3">
-        <v>0.6635514018691588</v>
-      </c>
-      <c r="BP3">
-        <v>0.9396551724137931</v>
-      </c>
-      <c r="BQ3">
-        <v>0.8235294117647056</v>
-      </c>
-      <c r="BR3">
-        <v>1.019801980198019</v>
-      </c>
-      <c r="BS3">
-        <v>0.9847328244274804</v>
-      </c>
-      <c r="BU3">
-        <v>2.142857142857143</v>
-      </c>
-      <c r="BV3">
-        <v>0.9864864864864868</v>
-      </c>
-      <c r="CG3">
-        <v>1.049382716049383</v>
+      <c r="CH3">
+        <v>1.777777777777779</v>
+      </c>
+      <c r="CI3">
+        <v>0.9714285714285716</v>
       </c>
       <c r="CK3">
-        <v>0.9586776859504128</v>
+        <v>19.55555555555555</v>
+      </c>
+      <c r="CL3">
+        <v>2.4</v>
+      </c>
+      <c r="CM3">
+        <v>0.6739130434782609</v>
       </c>
       <c r="CN3">
-        <v>4.285714285714286</v>
+        <v>0.253968253968254</v>
+      </c>
+      <c r="CO3">
+        <v>0.7882352941176471</v>
+      </c>
+      <c r="CP3">
+        <v>19.55555555555555</v>
+      </c>
+      <c r="CQ3">
+        <v>1.833333333333333</v>
+      </c>
+      <c r="CR3">
+        <v>1.011695906432749</v>
+      </c>
+      <c r="CS3">
+        <v>1.292682926829269</v>
+      </c>
+      <c r="CT3">
+        <v>1.059701492537313</v>
+      </c>
+      <c r="CU3">
+        <v>1.475728155339806</v>
+      </c>
+      <c r="CV3">
+        <v>0.9884393063583812</v>
       </c>
     </row>
-    <row r="4" spans="1:97">
+    <row r="4" spans="1:101">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
         <v>0.5555555555555555</v>
       </c>
+      <c r="C4">
+        <v>0.9710144927536234</v>
+      </c>
+      <c r="D4">
+        <v>1.707317073170731</v>
+      </c>
       <c r="E4">
+        <v>0.9626865671641787</v>
+      </c>
+      <c r="F4">
         <v>0.305732484076433</v>
       </c>
-      <c r="F4">
+      <c r="H4">
         <v>0.9622641509433963</v>
       </c>
-      <c r="H4">
+      <c r="I4">
+        <v>1.213592233009709</v>
+      </c>
+      <c r="J4">
         <v>0.6842105263157897</v>
       </c>
-      <c r="I4">
+      <c r="K4">
         <v>0.3461538461538462</v>
       </c>
-      <c r="K4">
+      <c r="L4">
+        <v>1.210526315789473</v>
+      </c>
+      <c r="N4">
         <v>3.627906976744187</v>
       </c>
-      <c r="N4">
+      <c r="O4">
+        <v>1.163636363636364</v>
+      </c>
+      <c r="P4">
         <v>1.069767441860465</v>
       </c>
-      <c r="O4">
+      <c r="Q4">
         <v>9.33333333333333</v>
       </c>
-      <c r="P4">
+      <c r="R4">
         <v>0.6274509803921572</v>
       </c>
       <c r="S4">
-        <v>6</v>
+        <v>1</v>
+      </c>
+      <c r="T4">
+        <v>1.088888888888889</v>
+      </c>
+      <c r="U4">
+        <v>0.8275862068965517</v>
+      </c>
+      <c r="V4">
+        <v>0.9230769230769231</v>
       </c>
       <c r="W4">
         <v>1.022222222222222</v>
       </c>
+      <c r="X4">
+        <v>0.7066666666666668</v>
+      </c>
       <c r="Y4">
         <v>0.8799999999999997</v>
       </c>
       <c r="Z4">
         <v>0.9019607843137255</v>
       </c>
+      <c r="AA4">
+        <v>16.11111111111111</v>
+      </c>
       <c r="AB4">
-        <v>0.9814814814814817</v>
+        <v>1.017857142857143</v>
+      </c>
+      <c r="AC4">
+        <v>1.129310344827587</v>
+      </c>
+      <c r="AD4">
+        <v>1.479166666666667</v>
+      </c>
+      <c r="AF4">
+        <v>0.05</v>
+      </c>
+      <c r="AG4">
+        <v>1.099236641221374</v>
       </c>
       <c r="AH4">
+        <v>6.479999999999999</v>
+      </c>
+      <c r="AI4">
+        <v>0.9767441860465119</v>
+      </c>
+      <c r="AJ4">
+        <v>1.070175438596491</v>
+      </c>
+      <c r="AL4">
+        <v>1.037593984962406</v>
+      </c>
+      <c r="AM4">
+        <v>1.045454545454546</v>
+      </c>
+      <c r="AN4">
         <v>1.18095238095238</v>
       </c>
-      <c r="AJ4">
+      <c r="AO4">
         <v>1.140495867768595</v>
       </c>
-      <c r="AK4">
+      <c r="AP4">
+        <v>4.238095238095236</v>
+      </c>
+      <c r="AQ4">
+        <v>1.119047619047619</v>
+      </c>
+      <c r="AR4">
         <v>1.476190476190476</v>
       </c>
-      <c r="AM4">
-        <v>1.179245283018868</v>
-      </c>
-      <c r="AQ4">
-        <v>1.075471698113207</v>
-      </c>
-      <c r="AR4">
-        <v>0.8510638297872339</v>
-      </c>
-      <c r="AS4">
-        <v>0.978723404255319</v>
-      </c>
       <c r="AT4">
-        <v>1.479166666666667</v>
+        <v>1.185185185185185</v>
       </c>
       <c r="AU4">
-        <v>0.05</v>
-      </c>
-      <c r="AX4">
-        <v>0.9767441860465119</v>
+        <v>0.02777777777777777</v>
+      </c>
+      <c r="AV4">
+        <v>1.122448979591837</v>
+      </c>
+      <c r="AZ4">
+        <v>0.9133858267716534</v>
+      </c>
+      <c r="BA4">
+        <v>1.041095890410959</v>
       </c>
       <c r="BB4">
-        <v>0.7974683544303798</v>
+        <v>0.4755244755244755</v>
       </c>
       <c r="BC4">
-        <v>0.9583333333333333</v>
+        <v>0.9603960396039604</v>
+      </c>
+      <c r="BD4">
+        <v>0.91</v>
+      </c>
+      <c r="BE4">
+        <v>1.077669902912622</v>
+      </c>
+      <c r="BF4">
+        <v>0.9290780141843973</v>
+      </c>
+      <c r="BG4">
+        <v>0.9537037037037033</v>
+      </c>
+      <c r="BH4">
+        <v>0.785714285714286</v>
       </c>
       <c r="BI4">
-        <v>0.9428571428571434</v>
+        <v>1.010869565217391</v>
       </c>
       <c r="BJ4">
-        <v>0.8990825688073397</v>
+        <v>0.9134615384615383</v>
       </c>
       <c r="BK4">
-        <v>0.4304635761589405</v>
+        <v>0.9924242424242421</v>
+      </c>
+      <c r="BL4">
+        <v>0.8602941176470585</v>
+      </c>
+      <c r="BM4">
+        <v>0.8846153846153845</v>
+      </c>
+      <c r="BN4">
+        <v>0.9504950495049502</v>
+      </c>
+      <c r="BO4">
+        <v>0.884297520661157</v>
       </c>
       <c r="BP4">
-        <v>0.9051724137931041</v>
-      </c>
-      <c r="BS4">
-        <v>0.8778625954198477</v>
+        <v>0.6363636363636366</v>
+      </c>
+      <c r="BQ4">
+        <v>1.024096385542169</v>
+      </c>
+      <c r="BR4">
+        <v>0.9296875000000004</v>
+      </c>
+      <c r="BT4">
+        <v>1</v>
       </c>
       <c r="BU4">
-        <v>2.228571428571429</v>
+        <v>1.028571428571429</v>
       </c>
       <c r="BV4">
-        <v>0.9391891891891888</v>
+        <v>1.054945054945055</v>
+      </c>
+      <c r="BW4">
+        <v>1.448979591836735</v>
+      </c>
+      <c r="BX4">
+        <v>0.9191919191919193</v>
+      </c>
+      <c r="BY4">
+        <v>1.05952380952381</v>
+      </c>
+      <c r="BZ4">
+        <v>1.418604651162791</v>
+      </c>
+      <c r="CA4">
+        <v>0.9136690647482019</v>
+      </c>
+      <c r="CB4">
+        <v>1.096153846153846</v>
+      </c>
+      <c r="CC4">
+        <v>0.4411764705882351</v>
+      </c>
+      <c r="CD4">
+        <v>16.2</v>
+      </c>
+      <c r="CE4">
+        <v>0.5227272727272728</v>
       </c>
       <c r="CF4">
-        <v>0.07303370786516852</v>
+        <v>4</v>
+      </c>
+      <c r="CG4">
+        <v>1</v>
       </c>
       <c r="CH4">
-        <v>0.8473282442748094</v>
+        <v>1.523809523809524</v>
+      </c>
+      <c r="CI4">
+        <v>0.96</v>
       </c>
       <c r="CK4">
-        <v>0.9008264462809913</v>
+        <v>0.7777777777777777</v>
+      </c>
+      <c r="CL4">
+        <v>2.15</v>
+      </c>
+      <c r="CM4">
+        <v>0.6956521739130436</v>
       </c>
       <c r="CN4">
-        <v>3.857142857142856</v>
+        <v>0.6190476190476191</v>
+      </c>
+      <c r="CO4">
+        <v>0.8470588235294119</v>
+      </c>
+      <c r="CP4">
+        <v>19.11111111111111</v>
+      </c>
+      <c r="CQ4">
+        <v>2.499999999999999</v>
+      </c>
+      <c r="CR4">
+        <v>0.9766081871345036</v>
+      </c>
+      <c r="CS4">
+        <v>1.390243902439024</v>
+      </c>
+      <c r="CT4">
+        <v>0.8358208955223881</v>
+      </c>
+      <c r="CU4">
+        <v>0.116504854368932</v>
+      </c>
+      <c r="CV4">
+        <v>0.9248554913294799</v>
+      </c>
+      <c r="CW4">
+        <v>1.052631578947368</v>
       </c>
     </row>
-    <row r="5" spans="1:97">
+    <row r="5" spans="1:101">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
         <v>1.111111111111111</v>
       </c>
+      <c r="C5">
+        <v>1.072463768115942</v>
+      </c>
       <c r="D5">
+        <v>2.439024390243902</v>
+      </c>
+      <c r="E5">
         <v>0.985074626865672</v>
       </c>
-      <c r="E5">
+      <c r="F5">
         <v>0.9808917197452223</v>
       </c>
-      <c r="F5">
+      <c r="H5">
         <v>0.8867924528301885</v>
       </c>
-      <c r="H5">
+      <c r="I5">
+        <v>1.427184466019417</v>
+      </c>
+      <c r="J5">
         <v>0.9473684210526321</v>
       </c>
-      <c r="I5">
+      <c r="K5">
         <v>6.769230769230768</v>
       </c>
-      <c r="K5">
+      <c r="L5">
+        <v>1.070175438596491</v>
+      </c>
+      <c r="N5">
         <v>3.813953488372094</v>
       </c>
-      <c r="N5">
+      <c r="O5">
+        <v>1.2</v>
+      </c>
+      <c r="P5">
         <v>0.8837209302325579</v>
       </c>
-      <c r="O5">
+      <c r="Q5">
         <v>9.277777777777779</v>
       </c>
-      <c r="P5">
+      <c r="R5">
         <v>0.6372549019607846</v>
       </c>
       <c r="S5">
-        <v>5.919999999999998</v>
+        <v>3.361702127659573</v>
+      </c>
+      <c r="T5">
+        <v>0.5555555555555557</v>
+      </c>
+      <c r="U5">
+        <v>0.839080459770115</v>
+      </c>
+      <c r="V5">
+        <v>0.9890109890109889</v>
       </c>
       <c r="W5">
         <v>0.9111111111111111</v>
       </c>
+      <c r="X5">
+        <v>0.6666666666666666</v>
+      </c>
       <c r="Y5">
         <v>1.12</v>
       </c>
       <c r="Z5">
         <v>1</v>
       </c>
+      <c r="AA5">
+        <v>17</v>
+      </c>
       <c r="AB5">
-        <v>1</v>
+        <v>0.982142857142857</v>
+      </c>
+      <c r="AC5">
+        <v>1.077586206896552</v>
+      </c>
+      <c r="AD5">
+        <v>0.3437499999999999</v>
+      </c>
+      <c r="AF5">
+        <v>0.9000000000000001</v>
+      </c>
+      <c r="AG5">
+        <v>1.106870229007634</v>
+      </c>
+      <c r="AH5">
+        <v>0</v>
+      </c>
+      <c r="AI5">
+        <v>0.8372093023255816</v>
+      </c>
+      <c r="AJ5">
+        <v>0.9824561403508772</v>
+      </c>
+      <c r="AL5">
+        <v>1.067669172932331</v>
+      </c>
+      <c r="AM5">
+        <v>1.063636363636364</v>
+      </c>
+      <c r="AN5">
+        <v>1.219047619047618</v>
+      </c>
+      <c r="AO5">
+        <v>1.099173553719008</v>
+      </c>
+      <c r="AP5">
+        <v>0.3333333333333331</v>
       </c>
       <c r="AQ5">
-        <v>0.9811320754716979</v>
+        <v>1.095238095238095</v>
       </c>
       <c r="AR5">
-        <v>0.978723404255319</v>
+        <v>1.309523809523809</v>
       </c>
       <c r="AS5">
-        <v>1</v>
+        <v>1.163934426229508</v>
       </c>
       <c r="AT5">
-        <v>0.3437499999999999</v>
+        <v>1.055555555555556</v>
       </c>
       <c r="AU5">
+        <v>0.7499999999999997</v>
+      </c>
+      <c r="AV5">
+        <v>1.040816326530612</v>
+      </c>
+      <c r="AY5">
+        <v>1.02158273381295</v>
+      </c>
+      <c r="AZ5">
+        <v>0.9842519685039373</v>
+      </c>
+      <c r="BA5">
+        <v>1.061643835616438</v>
+      </c>
+      <c r="BB5">
+        <v>0.9860139860139856</v>
+      </c>
+      <c r="BC5">
+        <v>1</v>
+      </c>
+      <c r="BD5">
+        <v>0.96</v>
+      </c>
+      <c r="BE5">
+        <v>1.0873786407767</v>
+      </c>
+      <c r="BF5">
+        <v>1.014184397163121</v>
+      </c>
+      <c r="BG5">
+        <v>0.8888888888888886</v>
+      </c>
+      <c r="BH5">
+        <v>0.8392857142857142</v>
+      </c>
+      <c r="BI5">
+        <v>0.9673913043478262</v>
+      </c>
+      <c r="BJ5">
+        <v>0.9326923076923077</v>
+      </c>
+      <c r="BK5">
+        <v>1</v>
+      </c>
+      <c r="BM5">
+        <v>0.9230769230769229</v>
+      </c>
+      <c r="BN5">
+        <v>1.178217821782179</v>
+      </c>
+      <c r="BO5">
+        <v>1.049586776859504</v>
+      </c>
+      <c r="BP5">
+        <v>0.7784090909090907</v>
+      </c>
+      <c r="BQ5">
+        <v>1.024096385542169</v>
+      </c>
+      <c r="BR5">
+        <v>0.9843749999999997</v>
+      </c>
+      <c r="BT5">
+        <v>1.051282051282051</v>
+      </c>
+      <c r="BU5">
+        <v>1.014285714285714</v>
+      </c>
+      <c r="BV5">
+        <v>1.054945054945055</v>
+      </c>
+      <c r="BW5">
+        <v>3.020408163265305</v>
+      </c>
+      <c r="BX5">
+        <v>0.8484848484848486</v>
+      </c>
+      <c r="BY5">
+        <v>1.011904761904762</v>
+      </c>
+      <c r="BZ5">
+        <v>1.441860465116279</v>
+      </c>
+      <c r="CA5">
+        <v>0.9208633093525185</v>
+      </c>
+      <c r="CB5">
+        <v>0.9423076923076923</v>
+      </c>
+      <c r="CC5">
+        <v>1.176470588235294</v>
+      </c>
+      <c r="CD5">
+        <v>2</v>
+      </c>
+      <c r="CE5">
+        <v>4.022727272727272</v>
+      </c>
+      <c r="CF5">
+        <v>3</v>
+      </c>
+      <c r="CG5">
+        <v>0.611111111111111</v>
+      </c>
+      <c r="CH5">
+        <v>1.80952380952381</v>
+      </c>
+      <c r="CI5">
+        <v>0.9485714285714287</v>
+      </c>
+      <c r="CK5">
+        <v>0</v>
+      </c>
+      <c r="CL5">
         <v>0.9000000000000001</v>
       </c>
-      <c r="AX5">
-        <v>0.8372093023255816</v>
-      </c>
-      <c r="BB5">
-        <v>0.7468354430379747</v>
-      </c>
-      <c r="BC5">
-        <v>0.986111111111111</v>
-      </c>
-      <c r="BE5">
-        <v>0.8799999999999999</v>
-      </c>
-      <c r="BI5">
-        <v>1.028571428571429</v>
-      </c>
-      <c r="BK5">
-        <v>0.9668874172185434</v>
-      </c>
-      <c r="BP5">
-        <v>0.9741379310344829</v>
-      </c>
-      <c r="BS5">
-        <v>0.9312977099236645</v>
-      </c>
-      <c r="BU5">
-        <v>1.114285714285714</v>
-      </c>
-      <c r="BV5">
-        <v>0.9864864864864868</v>
-      </c>
-      <c r="BZ5">
-        <v>8.315789473684209</v>
-      </c>
-      <c r="CC5">
-        <v>1.037037037037037</v>
-      </c>
-      <c r="CH5">
-        <v>1</v>
-      </c>
-      <c r="CK5">
-        <v>1.057851239669421</v>
+      <c r="CM5">
+        <v>0.4347826086956522</v>
+      </c>
+      <c r="CN5">
+        <v>0.238095238095238</v>
+      </c>
+      <c r="CO5">
+        <v>0.8705882352941178</v>
       </c>
       <c r="CP5">
-        <v>0.9588235294117647</v>
+        <v>19.22222222222222</v>
+      </c>
+      <c r="CQ5">
+        <v>1.333333333333333</v>
+      </c>
+      <c r="CR5">
+        <v>0.9941520467836261</v>
       </c>
       <c r="CS5">
-        <v>0.9941520467836261</v>
+        <v>1.219512195121951</v>
+      </c>
+      <c r="CT5">
+        <v>0.8358208955223881</v>
+      </c>
+      <c r="CU5">
+        <v>0.01941747572815534</v>
+      </c>
+      <c r="CV5">
+        <v>0.9710982658959536</v>
+      </c>
+      <c r="CW5">
+        <v>1.017543859649123</v>
       </c>
     </row>
-    <row r="6" spans="1:97">
+    <row r="6" spans="1:101">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
         <v>2.111111111111111</v>
       </c>
+      <c r="C6">
+        <v>0.9420289855072465</v>
+      </c>
+      <c r="D6">
+        <v>1.658536585365854</v>
+      </c>
       <c r="E6">
+        <v>0.9328358208955226</v>
+      </c>
+      <c r="F6">
         <v>0.2802547770700635</v>
       </c>
-      <c r="F6">
+      <c r="H6">
         <v>0.918238993710692</v>
       </c>
-      <c r="H6">
+      <c r="I6">
+        <v>1.135922330097088</v>
+      </c>
+      <c r="J6">
         <v>0.8684210526315791</v>
       </c>
-      <c r="I6">
+      <c r="K6">
         <v>0</v>
       </c>
-      <c r="K6">
+      <c r="L6">
+        <v>1.210526315789473</v>
+      </c>
+      <c r="N6">
         <v>0.06976744186046512</v>
       </c>
-      <c r="N6">
+      <c r="O6">
+        <v>1.254545454545454</v>
+      </c>
+      <c r="P6">
         <v>1.069767441860465</v>
       </c>
-      <c r="P6">
+      <c r="Q6">
+        <v>9.611111111111109</v>
+      </c>
+      <c r="R6">
         <v>0.53921568627451</v>
       </c>
       <c r="S6">
-        <v>2.28</v>
+        <v>0.02127659574468085</v>
+      </c>
+      <c r="T6">
+        <v>1.133333333333333</v>
+      </c>
+      <c r="U6">
+        <v>0.8505747126436782</v>
+      </c>
+      <c r="V6">
+        <v>1</v>
       </c>
       <c r="W6">
         <v>1.088888888888889</v>
       </c>
+      <c r="X6">
+        <v>0.88</v>
+      </c>
       <c r="Y6">
         <v>1.44</v>
       </c>
@@ -1338,201 +1884,510 @@
         <v>0.8627450980392156</v>
       </c>
       <c r="AA6">
-        <v>4.023255813953488</v>
+        <v>16.88888888888889</v>
       </c>
       <c r="AB6">
-        <v>1.055555555555556</v>
+        <v>1.125</v>
+      </c>
+      <c r="AC6">
+        <v>1.025862068965518</v>
+      </c>
+      <c r="AD6">
+        <v>0.1875</v>
+      </c>
+      <c r="AF6">
+        <v>1.95</v>
+      </c>
+      <c r="AG6">
+        <v>1.038167938931298</v>
+      </c>
+      <c r="AH6">
+        <v>1.2</v>
+      </c>
+      <c r="AI6">
+        <v>0.6744186046511629</v>
+      </c>
+      <c r="AJ6">
+        <v>1.035087719298246</v>
+      </c>
+      <c r="AK6">
+        <v>1.139344262295081</v>
+      </c>
+      <c r="AL6">
+        <v>1.037593984962406</v>
+      </c>
+      <c r="AM6">
+        <v>1.027272727272727</v>
+      </c>
+      <c r="AN6">
+        <v>0.9714285714285705</v>
+      </c>
+      <c r="AO6">
+        <v>1.024793388429752</v>
+      </c>
+      <c r="AP6">
+        <v>3.976190476190476</v>
       </c>
       <c r="AQ6">
-        <v>1.018867924528302</v>
+        <v>1.142857142857143</v>
       </c>
       <c r="AR6">
-        <v>0.8936170212765959</v>
+        <v>1.238095238095238</v>
       </c>
       <c r="AS6">
-        <v>1.021276595744681</v>
+        <v>0.9672131147540983</v>
       </c>
       <c r="AT6">
-        <v>0.1875</v>
+        <v>1.074074074074074</v>
       </c>
       <c r="AU6">
-        <v>1.95</v>
+        <v>1.5</v>
+      </c>
+      <c r="AV6">
+        <v>1</v>
+      </c>
+      <c r="AW6">
+        <v>1.108695652173913</v>
       </c>
       <c r="AX6">
-        <v>0.6744186046511629</v>
+        <v>1.021428571428572</v>
+      </c>
+      <c r="AY6">
+        <v>0.9496402877697849</v>
       </c>
       <c r="AZ6">
+        <v>0.8897637795275589</v>
+      </c>
+      <c r="BA6">
+        <v>1</v>
+      </c>
+      <c r="BB6">
+        <v>0.9090909090909086</v>
+      </c>
+      <c r="BC6">
+        <v>0.881188118811881</v>
+      </c>
+      <c r="BD6">
+        <v>0.8499999999999999</v>
+      </c>
+      <c r="BE6">
+        <v>0.990291262135922</v>
+      </c>
+      <c r="BF6">
+        <v>0.7446808510638302</v>
+      </c>
+      <c r="BG6">
+        <v>0.7870370370370368</v>
+      </c>
+      <c r="BH6">
+        <v>0.5178571428571429</v>
+      </c>
+      <c r="BI6">
         <v>0.891304347826087</v>
       </c>
-      <c r="BB6">
-        <v>0.8481012658227849</v>
-      </c>
-      <c r="BE6">
-        <v>0.72</v>
-      </c>
-      <c r="BI6">
-        <v>0.4714285714285716</v>
-      </c>
       <c r="BJ6">
-        <v>0.8165137614678902</v>
+        <v>0.8365384615384615</v>
       </c>
       <c r="BK6">
-        <v>0.456953642384106</v>
+        <v>0.9318181818181813</v>
+      </c>
+      <c r="BL6">
+        <v>0.9411764705882349</v>
+      </c>
+      <c r="BM6">
+        <v>0.8749999999999999</v>
+      </c>
+      <c r="BN6">
+        <v>0.8613861386138612</v>
+      </c>
+      <c r="BO6">
+        <v>0.9008264462809913</v>
       </c>
       <c r="BP6">
-        <v>0.8965517241379314</v>
+        <v>0.4545454545454545</v>
+      </c>
+      <c r="BQ6">
+        <v>0.9518072289156626</v>
       </c>
       <c r="BR6">
-        <v>0.8019801980198018</v>
+        <v>0.859375</v>
       </c>
       <c r="BS6">
-        <v>0.8396946564885497</v>
+        <v>0.8985507246376812</v>
+      </c>
+      <c r="BT6">
+        <v>0.9487179487179488</v>
       </c>
       <c r="BU6">
-        <v>1.742857142857143</v>
+        <v>0.8857142857142857</v>
       </c>
       <c r="BV6">
-        <v>0.9324324324324325</v>
+        <v>0.9450549450549449</v>
+      </c>
+      <c r="BW6">
+        <v>1.346938775510204</v>
+      </c>
+      <c r="BX6">
+        <v>0.8787878787878789</v>
+      </c>
+      <c r="BY6">
+        <v>1.05952380952381</v>
       </c>
       <c r="BZ6">
-        <v>8.105263157894735</v>
+        <v>1.441860465116279</v>
       </c>
       <c r="CA6">
-        <v>1</v>
+        <v>0.8273381294964036</v>
+      </c>
+      <c r="CB6">
+        <v>1.038461538461538</v>
       </c>
       <c r="CC6">
-        <v>1.04320987654321</v>
+        <v>0.4411764705882351</v>
+      </c>
+      <c r="CD6">
+        <v>4.399999999999999</v>
+      </c>
+      <c r="CE6">
+        <v>0.4090909090909092</v>
       </c>
       <c r="CF6">
-        <v>0.9943820224719099</v>
+        <v>11</v>
       </c>
       <c r="CG6">
-        <v>1.018518518518518</v>
+        <v>0.8703703703703706</v>
       </c>
       <c r="CH6">
-        <v>0.9312977099236645</v>
+        <v>1.73015873015873</v>
+      </c>
+      <c r="CI6">
+        <v>0.9485714285714287</v>
       </c>
       <c r="CK6">
-        <v>0.140495867768595</v>
+        <v>1.444444444444444</v>
+      </c>
+      <c r="CL6">
+        <v>0.9000000000000001</v>
+      </c>
+      <c r="CM6">
+        <v>0.7173913043478261</v>
       </c>
       <c r="CN6">
-        <v>1.571428571428571</v>
+        <v>0.06349206349206349</v>
+      </c>
+      <c r="CO6">
+        <v>0.8470588235294119</v>
       </c>
       <c r="CP6">
-        <v>0.9764705882352941</v>
+        <v>19.77777777777777</v>
+      </c>
+      <c r="CQ6">
+        <v>0.3333333333333333</v>
       </c>
       <c r="CR6">
-        <v>2.174603174603174</v>
+        <v>0.9473684210526319</v>
       </c>
       <c r="CS6">
-        <v>0.9473684210526319</v>
+        <v>1.024390243902439</v>
+      </c>
+      <c r="CT6">
+        <v>0.9402985074626865</v>
+      </c>
+      <c r="CU6">
+        <v>1.466019417475728</v>
+      </c>
+      <c r="CV6">
+        <v>0.9653179190751447</v>
       </c>
     </row>
-    <row r="7" spans="1:97">
+    <row r="7" spans="1:101">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
         <v>18.88888888888889</v>
       </c>
+      <c r="C7">
+        <v>0.9275362318840581</v>
+      </c>
+      <c r="D7">
+        <v>1.463414634146341</v>
+      </c>
       <c r="E7">
+        <v>0.9701492537313432</v>
+      </c>
+      <c r="F7">
         <v>0.9044585987261144</v>
       </c>
-      <c r="F7">
+      <c r="H7">
         <v>0.9245283018867921</v>
       </c>
-      <c r="H7">
+      <c r="I7">
+        <v>1.398058252427185</v>
+      </c>
+      <c r="J7">
         <v>0.7368421052631582</v>
       </c>
-      <c r="I7">
+      <c r="K7">
         <v>6.307692307692309</v>
       </c>
-      <c r="K7">
+      <c r="L7">
+        <v>1.157894736842105</v>
+      </c>
+      <c r="N7">
         <v>3.697674418604652</v>
       </c>
-      <c r="N7">
+      <c r="O7">
+        <v>1.127272727272727</v>
+      </c>
+      <c r="P7">
         <v>0.3255813953488371</v>
       </c>
-      <c r="O7">
+      <c r="Q7">
         <v>8.555555555555552</v>
       </c>
-      <c r="P7">
+      <c r="R7">
         <v>1.401960784313727</v>
       </c>
       <c r="S7">
-        <v>6.079999999999999</v>
+        <v>3.191489361702128</v>
+      </c>
+      <c r="T7">
+        <v>3.244444444444445</v>
+      </c>
+      <c r="U7">
+        <v>0.793103448275862</v>
+      </c>
+      <c r="V7">
+        <v>1.010989010989011</v>
       </c>
       <c r="W7">
         <v>1.044444444444445</v>
       </c>
+      <c r="X7">
+        <v>0.5600000000000001</v>
+      </c>
       <c r="Y7">
         <v>0.07999999999999999</v>
       </c>
       <c r="Z7">
         <v>0.5686274509803922</v>
       </c>
+      <c r="AA7">
+        <v>16.55555555555555</v>
+      </c>
       <c r="AB7">
-        <v>0.7592592592592593</v>
+        <v>0.8928571428571428</v>
+      </c>
+      <c r="AC7">
+        <v>0.9396551724137931</v>
+      </c>
+      <c r="AD7">
+        <v>1.677083333333333</v>
+      </c>
+      <c r="AE7">
+        <v>0.1238095238095237</v>
+      </c>
+      <c r="AF7">
+        <v>8.849999999999996</v>
+      </c>
+      <c r="AG7">
+        <v>1.068702290076336</v>
+      </c>
+      <c r="AH7">
+        <v>0.07999999999999999</v>
+      </c>
+      <c r="AI7">
+        <v>0.4186046511627908</v>
+      </c>
+      <c r="AJ7">
+        <v>0.9122807017543859</v>
       </c>
       <c r="AK7">
+        <v>1.204918032786885</v>
+      </c>
+      <c r="AL7">
+        <v>1.052631578947368</v>
+      </c>
+      <c r="AM7">
+        <v>1.072727272727273</v>
+      </c>
+      <c r="AN7">
+        <v>1.076190476190475</v>
+      </c>
+      <c r="AO7">
+        <v>1.090909090909091</v>
+      </c>
+      <c r="AP7">
+        <v>3.952380952380952</v>
+      </c>
+      <c r="AQ7">
+        <v>1.047619047619047</v>
+      </c>
+      <c r="AR7">
         <v>1.023809523809524</v>
       </c>
-      <c r="AQ7">
-        <v>0.8867924528301886</v>
-      </c>
-      <c r="AR7">
-        <v>0.7446808510638296</v>
-      </c>
       <c r="AS7">
-        <v>0.7872340425531914</v>
+        <v>1.139344262295081</v>
       </c>
       <c r="AT7">
-        <v>1.677083333333333</v>
+        <v>1.055555555555556</v>
       </c>
       <c r="AU7">
-        <v>8.849999999999996</v>
+        <v>0</v>
+      </c>
+      <c r="AV7">
+        <v>0.8163265306122449</v>
+      </c>
+      <c r="AW7">
+        <v>1.057971014492754</v>
       </c>
       <c r="AX7">
-        <v>0.4186046511627908</v>
+        <v>0.9857142857142859</v>
+      </c>
+      <c r="AY7">
+        <v>0.9712230215827345</v>
+      </c>
+      <c r="AZ7">
+        <v>0.9685039370078738</v>
+      </c>
+      <c r="BA7">
+        <v>1.041095890410959</v>
       </c>
       <c r="BB7">
-        <v>0.8227848101265823</v>
+        <v>0.7062937062937062</v>
       </c>
       <c r="BC7">
-        <v>0.9583333333333333</v>
+        <v>0.9504950495049502</v>
+      </c>
+      <c r="BD7">
+        <v>0.91</v>
+      </c>
+      <c r="BE7">
+        <v>1.165048543689321</v>
+      </c>
+      <c r="BF7">
+        <v>1</v>
+      </c>
+      <c r="BG7">
+        <v>1.101851851851852</v>
+      </c>
+      <c r="BH7">
+        <v>0.7916666666666665</v>
       </c>
       <c r="BI7">
-        <v>1.05</v>
+        <v>1.021739130434783</v>
       </c>
       <c r="BJ7">
-        <v>0.8807339449541287</v>
+        <v>0.8942307692307691</v>
       </c>
       <c r="BK7">
-        <v>0.456953642384106</v>
+        <v>1.06060606060606</v>
+      </c>
+      <c r="BL7">
+        <v>0.955882352941176</v>
+      </c>
+      <c r="BM7">
+        <v>0.9615384615384615</v>
+      </c>
+      <c r="BN7">
+        <v>0.9702970297029702</v>
+      </c>
+      <c r="BO7">
+        <v>0.9421487603305784</v>
       </c>
       <c r="BP7">
-        <v>0.9137931034482759</v>
+        <v>0.806818181818182</v>
+      </c>
+      <c r="BQ7">
+        <v>1.048192771084337</v>
       </c>
       <c r="BR7">
-        <v>0.9702970297029702</v>
-      </c>
-      <c r="BS7">
-        <v>0.9236641221374048</v>
+        <v>0.9296875000000004</v>
+      </c>
+      <c r="BT7">
+        <v>1.025641025641026</v>
       </c>
       <c r="BU7">
-        <v>2.028571428571428</v>
+        <v>1.042857142857143</v>
       </c>
       <c r="BV7">
-        <v>0.9932432432432431</v>
+        <v>1.076923076923077</v>
+      </c>
+      <c r="BW7">
+        <v>1.673469387755102</v>
+      </c>
+      <c r="BX7">
+        <v>0.9191919191919193</v>
+      </c>
+      <c r="BY7">
+        <v>0.9642857142857144</v>
+      </c>
+      <c r="BZ7">
+        <v>1.604651162790698</v>
+      </c>
+      <c r="CA7">
+        <v>0.9280575539568345</v>
+      </c>
+      <c r="CB7">
+        <v>0.9423076923076923</v>
+      </c>
+      <c r="CC7">
+        <v>1.147058823529412</v>
+      </c>
+      <c r="CD7">
+        <v>5.399999999999999</v>
+      </c>
+      <c r="CE7">
+        <v>0.75</v>
       </c>
       <c r="CF7">
-        <v>0.08988764044943824</v>
+        <v>13</v>
       </c>
       <c r="CG7">
-        <v>1.006172839506173</v>
+        <v>0.9814814814814817</v>
       </c>
       <c r="CH7">
-        <v>0.9389312977099235</v>
+        <v>1.73015873015873</v>
+      </c>
+      <c r="CI7">
+        <v>0.9885714285714287</v>
+      </c>
+      <c r="CK7">
+        <v>1.444444444444444</v>
+      </c>
+      <c r="CL7">
+        <v>2.5</v>
+      </c>
+      <c r="CM7">
+        <v>1.021739130434783</v>
+      </c>
+      <c r="CN7">
+        <v>0.4444444444444445</v>
+      </c>
+      <c r="CO7">
+        <v>0.7647058823529412</v>
+      </c>
+      <c r="CP7">
+        <v>0.6666666666666665</v>
+      </c>
+      <c r="CQ7">
+        <v>1.666666666666667</v>
+      </c>
+      <c r="CR7">
+        <v>1.011695906432749</v>
+      </c>
+      <c r="CS7">
+        <v>1.365853658536585</v>
+      </c>
+      <c r="CT7">
+        <v>0.8507462686567164</v>
+      </c>
+      <c r="CU7">
+        <v>0.02912621359223301</v>
+      </c>
+      <c r="CV7">
+        <v>0.9884393063583812</v>
       </c>
     </row>
   </sheetData>
